--- a/app/webroot/tests/format_contact.xlsx
+++ b/app/webroot/tests/format_contact.xlsx
@@ -4,7 +4,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -67,7 +67,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1">
         <v>42163</v>
@@ -79,7 +79,6 @@
     <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
